--- a/7.- Tarea_3.xlsx
+++ b/7.- Tarea_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2B4C65-9871-F54D-BB8C-1560A5457CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84543697-74B3-6241-BC26-B2A41BDDE3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{BCAAAC6A-9B9E-9149-8896-BD85024276D7}"/>
   </bookViews>
@@ -1419,7 +1419,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1523,9 +1523,8 @@
     <xf numFmtId="43" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1816,21 +1815,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>490415</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>74247</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>898769</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>158261</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96CD78F4-0E5F-801B-4626-C113080BAB77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EB80C2-6AA2-C4C3-109B-5BA6B3FFD972}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,8 +1845,228 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="0" y="10462846"/>
+          <a:ext cx="6340231" cy="773723"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>898769</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>165425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35A679C5-839B-1A21-9FC8-27D340325BF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11488615"/>
+          <a:ext cx="6340231" cy="780887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>781538</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>144816</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EEBA1CB-BFBC-6A3B-6E1C-15A5189B7C75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13745309"/>
+          <a:ext cx="6223000" cy="760276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>195385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>312615</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>190477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273863EB-EBAF-21A6-BF96-BD869E62035C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7317154" y="10453077"/>
+          <a:ext cx="6496538" cy="815708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>332154</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>202733</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7FD02C-F12B-E979-8ED7-60F23A986415}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7317154" y="11488615"/>
+          <a:ext cx="6516077" cy="818195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>528515</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>74247</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181047B9-E619-40FE-4B68-06A425CFCCE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="0" y="12514385"/>
-          <a:ext cx="4241800" cy="279400"/>
+          <a:ext cx="4279900" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1865,16 +2084,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>439615</xdr:colOff>
+      <xdr:colOff>465015</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>36146</xdr:rowOff>
+      <xdr:rowOff>112346</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5">
+        <xdr:cNvPr id="22" name="Imagen 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5502FBC7-B359-B8BC-8069-CCAC88DFA29C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72DA9F81-E177-1984-FC4C-E504AB6229D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +2102,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1891,7 +2110,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="13129846"/>
-          <a:ext cx="4191000" cy="241300"/>
+          <a:ext cx="4216400" cy="317500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1909,236 +2128,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>214923</xdr:colOff>
+      <xdr:colOff>477715</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>132404</xdr:rowOff>
+      <xdr:rowOff>74246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagen 11">
+        <xdr:cNvPr id="23" name="Imagen 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBB7F57-A73E-BA7B-86E1-04D560728566}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="14771077"/>
-          <a:ext cx="3966308" cy="337558"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>48847</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>107369</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagen 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA6CDC7-E3E2-4FFC-3007-787F9EDDC5EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="10511693"/>
-          <a:ext cx="5548831" cy="713153"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>9769</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>146538</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>98307</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Imagen 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C13934-5128-05C2-1D75-AD4E97EC2028}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="11498384"/>
-          <a:ext cx="5588000" cy="704000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>234461</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>74854</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Imagen 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552C0230-4768-5945-EBF2-EBC1E4F0509F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="13745309"/>
-          <a:ext cx="5675923" cy="690314"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>449385</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>163059</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagen 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2406B146-B8A3-09FB-2FBD-AA83A2EE5921}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7317154" y="10462847"/>
-          <a:ext cx="5802923" cy="778520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>664308</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>116253</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Imagen 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14ABF4DF-CA72-6685-6587-CF1FF4048BD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A82AAB3-E6FB-A99E-97DC-BB386630D460}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,8 +2153,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7317154" y="11488615"/>
-          <a:ext cx="6017846" cy="731715"/>
+          <a:off x="0" y="14771077"/>
+          <a:ext cx="4229100" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2173,16 +2172,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>579316</xdr:colOff>
+      <xdr:colOff>452316</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>99647</xdr:rowOff>
+      <xdr:rowOff>23447</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Imagen 17">
+        <xdr:cNvPr id="24" name="Imagen 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0491ECD1-2550-11DD-C36C-9848B3F544C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D37C5A-5EA9-8BFB-DF04-D51007059B31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2198,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7317154" y="12514385"/>
-          <a:ext cx="4330700" cy="304800"/>
+          <a:ext cx="4203700" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2217,16 +2216,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>604716</xdr:colOff>
+      <xdr:colOff>553916</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>112346</xdr:rowOff>
+      <xdr:rowOff>61546</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Imagen 18">
+        <xdr:cNvPr id="25" name="Imagen 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3CAFC77-7038-0826-B52C-CAE97B817696}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B956A0EE-EB09-D6DB-DE99-9EE2F87F55FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2242,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7317154" y="13129846"/>
-          <a:ext cx="4356100" cy="317500"/>
+          <a:ext cx="4305300" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2603,8 +2602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05470600-F928-034C-9B2E-D57197072C84}">
   <dimension ref="A25:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2618,7 +2617,7 @@
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>394</v>
       </c>
@@ -2628,10 +2627,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F26" s="43"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
         <v>395</v>
       </c>
@@ -2643,10 +2642,8 @@
         <v>417</v>
       </c>
       <c r="H27" s="30"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="30" t="s">
         <v>396</v>
       </c>
@@ -2659,7 +2656,7 @@
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>401</v>
       </c>
@@ -2668,10 +2665,10 @@
         <v>401</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F30" s="43"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>397</v>
       </c>
@@ -2686,7 +2683,7 @@
         <v>46546</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>398</v>
       </c>
@@ -2739,26 +2736,26 @@
         <v>403</v>
       </c>
       <c r="B36" s="31">
-        <v>6821700</v>
+        <v>6860700</v>
       </c>
       <c r="D36" t="s">
         <v>404</v>
       </c>
       <c r="E36" s="31">
-        <v>91.632400000000004</v>
+        <v>91.681700000000006</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" t="s">
         <v>403</v>
       </c>
       <c r="H36" s="31">
-        <v>2890600</v>
+        <v>2892100</v>
       </c>
       <c r="J36" t="s">
         <v>404</v>
       </c>
       <c r="K36" s="31">
-        <v>92.817700000000002</v>
+        <v>92.831599999999995</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -2766,26 +2763,26 @@
         <v>405</v>
       </c>
       <c r="B37" s="31">
-        <v>6884400</v>
+        <v>6923400</v>
       </c>
       <c r="D37" t="s">
         <v>406</v>
       </c>
       <c r="E37" s="31">
-        <v>91.570800000000006</v>
+        <v>91.620099999999994</v>
       </c>
       <c r="F37" s="43"/>
       <c r="G37" t="s">
         <v>405</v>
       </c>
       <c r="H37" s="31">
-        <v>2909700</v>
+        <v>2911300</v>
       </c>
       <c r="J37" t="s">
         <v>406</v>
       </c>
       <c r="K37" s="31">
-        <v>92.800399999999996</v>
+        <v>92.8142</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -2804,7 +2801,7 @@
       </c>
       <c r="E39" s="34">
         <f>ABS(E37-E36)</f>
-        <v>6.1599999999998545E-2</v>
+        <v>6.1600000000012756E-2</v>
       </c>
       <c r="F39" s="43"/>
       <c r="G39" s="32" t="s">
@@ -2812,14 +2809,14 @@
       </c>
       <c r="H39" s="33">
         <f>ABS(H37-H36)</f>
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="J39" s="32" t="s">
         <v>408</v>
       </c>
       <c r="K39" s="34">
         <f>ABS(K37-K36)</f>
-        <v>1.7300000000005866E-2</v>
+        <v>1.7399999999994975E-2</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -2831,7 +2828,7 @@
       </c>
       <c r="B41" s="40">
         <f>B39/E39</f>
-        <v>1017857.1428571669</v>
+        <v>1017857.1428569321</v>
       </c>
       <c r="C41" s="39" t="s">
         <v>410</v>
@@ -2843,7 +2840,7 @@
       </c>
       <c r="H41" s="40">
         <f>H39/K39</f>
-        <v>1104046.242774192</v>
+        <v>1103448.2758623876</v>
       </c>
       <c r="I41" s="39" t="s">
         <v>421</v>
@@ -2869,13 +2866,13 @@
         <v>412</v>
       </c>
       <c r="B45" s="31">
-        <v>9954500</v>
+        <v>9994200</v>
       </c>
       <c r="D45" t="s">
         <v>413</v>
       </c>
       <c r="E45" s="31">
-        <v>88.6173</v>
+        <v>88.664500000000004</v>
       </c>
       <c r="F45" s="43"/>
       <c r="H45" s="41"/>
@@ -2888,15 +2885,15 @@
         <v>414</v>
       </c>
       <c r="B47" s="33">
-        <f>B45-B36</f>
-        <v>3132800</v>
+        <f>B36-B45</f>
+        <v>-3133500</v>
       </c>
       <c r="D47" s="32" t="s">
         <v>414</v>
       </c>
       <c r="E47" s="34">
-        <f>(E45-E36)*B41</f>
-        <v>-3068941.0714286482</v>
+        <f>(E36-E45)*B41</f>
+        <v>3071078.5714279381</v>
       </c>
       <c r="F47" s="43"/>
     </row>
@@ -2909,7 +2906,7 @@
       </c>
       <c r="B49" s="42">
         <f>B47+E47</f>
-        <v>63858.928571351804</v>
+        <v>-62421.428572061937</v>
       </c>
       <c r="F49" s="43"/>
     </row>
@@ -2968,7 +2965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7751055F-69C1-7F41-9632-423030733DB8}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -4016,7 +4013,7 @@
       <c r="G34" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="46">
+      <c r="H34" s="45">
         <v>89.506</v>
       </c>
       <c r="I34" s="38">

--- a/7.- Tarea_3.xlsx
+++ b/7.- Tarea_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84543697-74B3-6241-BC26-B2A41BDDE3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AEE7FB-4B91-044C-BD95-7DF8466872E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{BCAAAC6A-9B9E-9149-8896-BD85024276D7}"/>
   </bookViews>
@@ -2602,8 +2602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05470600-F928-034C-9B2E-D57197072C84}">
   <dimension ref="A25:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/7.- Tarea_3.xlsx
+++ b/7.- Tarea_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AEE7FB-4B91-044C-BD95-7DF8466872E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F126543-BA18-5A4D-9DC0-EC3F8B5F387D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{BCAAAC6A-9B9E-9149-8896-BD85024276D7}"/>
   </bookViews>
@@ -2602,8 +2602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05470600-F928-034C-9B2E-D57197072C84}">
   <dimension ref="A25:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/7.- Tarea_3.xlsx
+++ b/7.- Tarea_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F126543-BA18-5A4D-9DC0-EC3F8B5F387D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7704300F-01A1-9246-92B2-E3E27ED247AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{BCAAAC6A-9B9E-9149-8896-BD85024276D7}"/>
   </bookViews>
@@ -2602,8 +2602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05470600-F928-034C-9B2E-D57197072C84}">
   <dimension ref="A25:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
